--- a/data/trans_orig/P20D2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P20D2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3C09942-31C8-4B43-89B2-2DAE051CB29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AF9C790-236C-4B5C-9532-83A27780F4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{87163054-33E4-4FF6-BA61-5D667DA43F43}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A5434D03-65F5-4A91-8463-2D0E3E4B7297}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="166">
   <si>
     <t>Población según si durante su último ingreso estuvo acompañado/a por una mujer en 2023 (Tasa respuesta: 1,85%)</t>
   </si>
@@ -110,7 +110,7 @@
     <t>40,07%</t>
   </si>
   <si>
-    <t>87,48%</t>
+    <t>87,36%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -131,7 +131,7 @@
     <t>59,93%</t>
   </si>
   <si>
-    <t>12,52%</t>
+    <t>12,64%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -146,19 +146,19 @@
     <t>72,66%</t>
   </si>
   <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
   </si>
   <si>
     <t>56,17%</t>
   </si>
   <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
   </si>
   <si>
     <t>41,15%</t>
@@ -170,16 +170,16 @@
     <t>9,77%</t>
   </si>
   <si>
-    <t>49,04%</t>
+    <t>46,84%</t>
   </si>
   <si>
     <t>21,29%</t>
   </si>
   <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
   </si>
   <si>
     <t>31,08%</t>
@@ -191,19 +191,19 @@
     <t>17,58%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
   </si>
   <si>
     <t>22,53%</t>
   </si>
   <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -212,79 +212,79 @@
     <t>29,54%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
   </si>
   <si>
     <t>52,48%</t>
   </si>
   <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
   </si>
   <si>
     <t>40,51%</t>
   </si>
   <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
   </si>
   <si>
     <t>9,76%</t>
   </si>
   <si>
-    <t>39,49%</t>
+    <t>40,55%</t>
   </si>
   <si>
     <t>12,99%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
   </si>
   <si>
     <t>11,31%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
   </si>
   <si>
     <t>60,7%</t>
   </si>
   <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
   </si>
   <si>
     <t>34,53%</t>
   </si>
   <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
   </si>
   <si>
     <t>48,19%</t>
   </si>
   <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -293,79 +293,79 @@
     <t>0,87%</t>
   </si>
   <si>
-    <t>6,29%</t>
+    <t>4,45%</t>
   </si>
   <si>
     <t>53,41%</t>
   </si>
   <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
   </si>
   <si>
     <t>18,23%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
   </si>
   <si>
     <t>17,01%</t>
   </si>
   <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
   </si>
   <si>
     <t>16,44%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
   </si>
   <si>
     <t>16,82%</t>
   </si>
   <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
   </si>
   <si>
     <t>82,12%</t>
   </si>
   <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
   </si>
   <si>
     <t>30,15%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
   </si>
   <si>
     <t>64,95%</t>
   </si>
   <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -374,10 +374,10 @@
     <t>14,84%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
   </si>
   <si>
     <t>45,14%</t>
@@ -392,16 +392,19 @@
     <t>27,5%</t>
   </si>
   <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
   </si>
   <si>
     <t>7,36%</t>
   </si>
   <si>
-    <t>18,65%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
   </si>
   <si>
     <t>10,06%</t>
@@ -416,19 +419,19 @@
     <t>8,49%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
   </si>
   <si>
     <t>77,8%</t>
   </si>
   <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
   </si>
   <si>
     <t>44,8%</t>
@@ -443,91 +446,91 @@
     <t>64,01%</t>
   </si>
   <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
   </si>
   <si>
     <t>16,0%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
   </si>
   <si>
     <t>50,85%</t>
   </si>
   <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
   </si>
   <si>
     <t>31,74%</t>
   </si>
   <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
   </si>
   <si>
     <t>12,69%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
   </si>
   <si>
     <t>10,62%</t>
   </si>
   <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
   </si>
   <si>
     <t>11,76%</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
   </si>
   <si>
     <t>71,31%</t>
   </si>
   <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
   </si>
   <si>
     <t>38,53%</t>
   </si>
   <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
   </si>
   <si>
     <t>56,5%</t>
   </si>
   <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -942,7 +945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141177D0-600E-4571-AA8C-567D59EFFA66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762911D1-EFDB-4A26-B480-8261A9339E1C}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2142,10 +2145,10 @@
         <v>120</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2154,13 +2157,13 @@
         <v>1615</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -2169,13 +2172,13 @@
         <v>3262</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2190,13 +2193,13 @@
         <v>17408</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -2205,13 +2208,13 @@
         <v>7192</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M26" s="7">
         <v>40</v>
@@ -2220,13 +2223,13 @@
         <v>24601</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,13 +2297,13 @@
         <v>10438</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H28" s="7">
         <v>41</v>
@@ -2309,13 +2312,13 @@
         <v>27316</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M28" s="7">
         <v>53</v>
@@ -2324,13 +2327,13 @@
         <v>37754</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2345,13 +2348,13 @@
         <v>8277</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -2360,13 +2363,13 @@
         <v>5705</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M29" s="7">
         <v>20</v>
@@ -2375,13 +2378,13 @@
         <v>13983</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,13 +2399,13 @@
         <v>46508</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H30" s="7">
         <v>33</v>
@@ -2411,13 +2414,13 @@
         <v>20695</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M30" s="7">
         <v>89</v>
@@ -2426,13 +2429,13 @@
         <v>67204</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,7 +2491,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P20D2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P20D2_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AF9C790-236C-4B5C-9532-83A27780F4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{951D1B14-DA4E-4AEC-8190-92ECE563E03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A5434D03-65F5-4A91-8463-2D0E3E4B7297}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{92C60819-37C6-43A3-9685-48CD0F983874}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -945,7 +945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762911D1-EFDB-4A26-B480-8261A9339E1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC8D10A-4A2F-4860-99D2-A3B76137BD13}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P20D2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P20D2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{951D1B14-DA4E-4AEC-8190-92ECE563E03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FD5DD1E-2F03-46D9-8592-704FC3FB9750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{92C60819-37C6-43A3-9685-48CD0F983874}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0FDD6B7E-9CCB-471F-841F-7E8B50611D13}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="165">
   <si>
     <t>Población según si durante su último ingreso estuvo acompañado/a por una mujer en 2023 (Tasa respuesta: 1,85%)</t>
   </si>
@@ -110,7 +110,7 @@
     <t>40,07%</t>
   </si>
   <si>
-    <t>87,36%</t>
+    <t>87,48%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -131,7 +131,7 @@
     <t>59,93%</t>
   </si>
   <si>
-    <t>12,64%</t>
+    <t>12,52%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -146,19 +146,19 @@
     <t>72,66%</t>
   </si>
   <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
   </si>
   <si>
     <t>56,17%</t>
   </si>
   <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
   </si>
   <si>
     <t>41,15%</t>
@@ -170,16 +170,16 @@
     <t>9,77%</t>
   </si>
   <si>
-    <t>46,84%</t>
+    <t>49,04%</t>
   </si>
   <si>
     <t>21,29%</t>
   </si>
   <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
   </si>
   <si>
     <t>31,08%</t>
@@ -191,19 +191,19 @@
     <t>17,58%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
   </si>
   <si>
     <t>22,53%</t>
   </si>
   <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -212,79 +212,79 @@
     <t>29,54%</t>
   </si>
   <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
   </si>
   <si>
     <t>52,48%</t>
   </si>
   <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
   </si>
   <si>
     <t>40,51%</t>
   </si>
   <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
   </si>
   <si>
     <t>9,76%</t>
   </si>
   <si>
-    <t>40,55%</t>
+    <t>39,49%</t>
   </si>
   <si>
     <t>12,99%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
   </si>
   <si>
     <t>11,31%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
   </si>
   <si>
     <t>60,7%</t>
   </si>
   <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
   </si>
   <si>
     <t>34,53%</t>
   </si>
   <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
   </si>
   <si>
     <t>48,19%</t>
   </si>
   <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -293,79 +293,79 @@
     <t>0,87%</t>
   </si>
   <si>
-    <t>4,45%</t>
+    <t>6,29%</t>
   </si>
   <si>
     <t>53,41%</t>
   </si>
   <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
   </si>
   <si>
     <t>18,23%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
   </si>
   <si>
     <t>17,01%</t>
   </si>
   <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
   </si>
   <si>
     <t>16,44%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
   </si>
   <si>
     <t>16,82%</t>
   </si>
   <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
   </si>
   <si>
     <t>82,12%</t>
   </si>
   <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
   </si>
   <si>
     <t>30,15%</t>
   </si>
   <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
   </si>
   <si>
     <t>64,95%</t>
   </si>
   <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -374,10 +374,10 @@
     <t>14,84%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
   </si>
   <si>
     <t>45,14%</t>
@@ -392,19 +392,16 @@
     <t>27,5%</t>
   </si>
   <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
   </si>
   <si>
     <t>7,36%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
+    <t>18,65%</t>
   </si>
   <si>
     <t>10,06%</t>
@@ -419,19 +416,19 @@
     <t>8,49%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
   </si>
   <si>
     <t>77,8%</t>
   </si>
   <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
   </si>
   <si>
     <t>44,8%</t>
@@ -446,91 +443,91 @@
     <t>64,01%</t>
   </si>
   <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
   </si>
   <si>
     <t>16,0%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
   </si>
   <si>
     <t>50,85%</t>
   </si>
   <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
   </si>
   <si>
     <t>31,74%</t>
   </si>
   <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
   </si>
   <si>
     <t>12,69%</t>
   </si>
   <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
   </si>
   <si>
     <t>10,62%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
   </si>
   <si>
     <t>11,76%</t>
   </si>
   <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
   </si>
   <si>
     <t>71,31%</t>
   </si>
   <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
   </si>
   <si>
     <t>38,53%</t>
   </si>
   <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
   </si>
   <si>
     <t>56,5%</t>
   </si>
   <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -945,7 +942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC8D10A-4A2F-4860-99D2-A3B76137BD13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0A630E-AE7E-4CCB-A383-56C6A291DA0C}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2145,10 +2142,10 @@
         <v>120</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2157,13 +2154,13 @@
         <v>1615</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -2172,13 +2169,13 @@
         <v>3262</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,13 +2190,13 @@
         <v>17408</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -2208,13 +2205,13 @@
         <v>7192</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M26" s="7">
         <v>40</v>
@@ -2223,13 +2220,13 @@
         <v>24601</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2297,13 +2294,13 @@
         <v>10438</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H28" s="7">
         <v>41</v>
@@ -2312,13 +2309,13 @@
         <v>27316</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M28" s="7">
         <v>53</v>
@@ -2327,13 +2324,13 @@
         <v>37754</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,13 +2345,13 @@
         <v>8277</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -2363,13 +2360,13 @@
         <v>5705</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M29" s="7">
         <v>20</v>
@@ -2378,13 +2375,13 @@
         <v>13983</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,13 +2396,13 @@
         <v>46508</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H30" s="7">
         <v>33</v>
@@ -2414,13 +2411,13 @@
         <v>20695</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M30" s="7">
         <v>89</v>
@@ -2429,13 +2426,13 @@
         <v>67204</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,7 +2488,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P20D2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P20D2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FD5DD1E-2F03-46D9-8592-704FC3FB9750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F263FC8-8150-48C1-802D-32386E0821A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0FDD6B7E-9CCB-471F-841F-7E8B50611D13}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E6EE0CAB-146E-4546-BB95-A750253790B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="189">
   <si>
     <t>Población según si durante su último ingreso estuvo acompañado/a por una mujer en 2023 (Tasa respuesta: 1,85%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No</t>
@@ -98,19 +98,19 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -122,412 +122,484 @@
     <t>30,57%</t>
   </si>
   <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>45/54</t>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>45-54</t>
   </si>
   <si>
     <t>29,54%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -942,8 +1014,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0A630E-AE7E-4CCB-A383-56C6A291DA0C}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89311AF1-3248-47C7-83CB-650C6A192968}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1174,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>3618</v>
+        <v>3220</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>17</v>
@@ -1189,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>3618</v>
+        <v>3220</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>17</v>
@@ -1223,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>3618</v>
+        <v>3220</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>19</v>
@@ -1238,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>3618</v>
+        <v>3220</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>19</v>
@@ -1261,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>1196</v>
+        <v>1386</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>21</v>
@@ -1276,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>1828</v>
+        <v>1783</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>22</v>
@@ -1291,7 +1363,7 @@
         <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>3024</v>
+        <v>3169</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>23</v>
@@ -1363,7 +1435,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>3556</v>
+        <v>3627</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>28</v>
@@ -1378,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>967</v>
+        <v>915</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>29</v>
@@ -1393,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>4523</v>
+        <v>4541</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>30</v>
@@ -1414,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>4752</v>
+        <v>5013</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>19</v>
@@ -1429,7 +1501,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>2795</v>
+        <v>2698</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>19</v>
@@ -1444,7 +1516,7 @@
         <v>5</v>
       </c>
       <c r="N11" s="7">
-        <v>7547</v>
+        <v>7710</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>19</v>
@@ -1467,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>1404</v>
+        <v>1355</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>33</v>
@@ -1482,7 +1554,7 @@
         <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>6327</v>
+        <v>5930</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>35</v>
@@ -1497,7 +1569,7 @@
         <v>9</v>
       </c>
       <c r="N12" s="7">
-        <v>7731</v>
+        <v>7285</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>38</v>
@@ -1518,7 +1590,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>2080</v>
+        <v>2111</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>41</v>
@@ -1533,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>850</v>
+        <v>724</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>43</v>
@@ -1548,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>2930</v>
+        <v>2835</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>45</v>
@@ -1569,7 +1641,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>1571</v>
+        <v>1521</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>48</v>
@@ -1584,7 +1656,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>1530</v>
+        <v>1478</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>50</v>
@@ -1599,7 +1671,7 @@
         <v>5</v>
       </c>
       <c r="N14" s="7">
-        <v>3101</v>
+        <v>2998</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>53</v>
@@ -1620,7 +1692,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="7">
-        <v>5054</v>
+        <v>4987</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1635,7 +1707,7 @@
         <v>12</v>
       </c>
       <c r="I15" s="7">
-        <v>8708</v>
+        <v>8132</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1650,7 +1722,7 @@
         <v>17</v>
       </c>
       <c r="N15" s="7">
-        <v>13762</v>
+        <v>13119</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1673,7 +1745,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>4358</v>
+        <v>4207</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>57</v>
@@ -1688,7 +1760,7 @@
         <v>11</v>
       </c>
       <c r="I16" s="7">
-        <v>7093</v>
+        <v>6556</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>60</v>
@@ -1703,7 +1775,7 @@
         <v>15</v>
       </c>
       <c r="N16" s="7">
-        <v>11451</v>
+        <v>10763</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>63</v>
@@ -1724,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>1440</v>
+        <v>1452</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>66</v>
@@ -1739,7 +1811,7 @@
         <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>1756</v>
+        <v>1746</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>68</v>
@@ -1754,7 +1826,7 @@
         <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>3196</v>
+        <v>3199</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>71</v>
@@ -1775,7 +1847,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="7">
-        <v>8956</v>
+        <v>8582</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>74</v>
@@ -1790,7 +1862,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="7">
-        <v>4667</v>
+        <v>4309</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>77</v>
@@ -1805,7 +1877,7 @@
         <v>18</v>
       </c>
       <c r="N18" s="7">
-        <v>13623</v>
+        <v>12891</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>80</v>
@@ -1826,7 +1898,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="7">
-        <v>14754</v>
+        <v>14241</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>19</v>
@@ -1841,7 +1913,7 @@
         <v>22</v>
       </c>
       <c r="I19" s="7">
-        <v>13516</v>
+        <v>12612</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>19</v>
@@ -1856,7 +1928,7 @@
         <v>37</v>
       </c>
       <c r="N19" s="7">
-        <v>28270</v>
+        <v>26853</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>19</v>
@@ -1894,7 +1966,7 @@
         <v>8</v>
       </c>
       <c r="I20" s="7">
-        <v>4820</v>
+        <v>4467</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>86</v>
@@ -1909,7 +1981,7 @@
         <v>9</v>
       </c>
       <c r="N20" s="7">
-        <v>4979</v>
+        <v>4627</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>89</v>
@@ -1930,7 +2002,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="7">
-        <v>3110</v>
+        <v>3009</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>92</v>
@@ -1945,7 +2017,7 @@
         <v>3</v>
       </c>
       <c r="I21" s="7">
-        <v>1484</v>
+        <v>1395</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>95</v>
@@ -1960,7 +2032,7 @@
         <v>6</v>
       </c>
       <c r="N21" s="7">
-        <v>4594</v>
+        <v>4405</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>98</v>
@@ -1981,46 +2053,46 @@
         <v>16</v>
       </c>
       <c r="D22" s="7">
-        <v>15018</v>
+        <v>14075</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>101</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
       </c>
       <c r="I22" s="7">
-        <v>2721</v>
+        <v>2601</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
       </c>
       <c r="N22" s="7">
-        <v>17738</v>
+        <v>16676</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,7 +2104,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="7">
-        <v>18287</v>
+        <v>17243</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>19</v>
@@ -2047,7 +2119,7 @@
         <v>17</v>
       </c>
       <c r="I23" s="7">
-        <v>9025</v>
+        <v>8464</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>19</v>
@@ -2062,7 +2134,7 @@
         <v>37</v>
       </c>
       <c r="N23" s="7">
-        <v>27311</v>
+        <v>25707</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>19</v>
@@ -2076,55 +2148,55 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>3321</v>
+        <v>1504</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>4</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1851</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H24" s="7">
-        <v>13</v>
-      </c>
-      <c r="I24" s="7">
-        <v>7248</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>7</v>
+      </c>
+      <c r="N24" s="7">
+        <v>3354</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="M24" s="7">
-        <v>18</v>
-      </c>
-      <c r="N24" s="7">
-        <v>10569</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2133,49 +2205,49 @@
         <v>15</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>1647</v>
+        <v>953</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7">
+        <v>358</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H25" s="7">
-        <v>4</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1615</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>3</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1311</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="M25" s="7">
-        <v>7</v>
-      </c>
-      <c r="N25" s="7">
-        <v>3262</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2184,49 +2256,49 @@
         <v>16</v>
       </c>
       <c r="C26" s="7">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D26" s="7">
-        <v>17408</v>
+        <v>12172</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>5</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2533</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H26" s="7">
-        <v>14</v>
-      </c>
-      <c r="I26" s="7">
-        <v>7192</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>24</v>
+      </c>
+      <c r="N26" s="7">
+        <v>14705</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M26" s="7">
-        <v>40</v>
-      </c>
-      <c r="N26" s="7">
-        <v>24601</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,40 +2307,40 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>24</v>
+      </c>
+      <c r="D27" s="7">
+        <v>14629</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
+        <v>10</v>
+      </c>
+      <c r="I27" s="7">
+        <v>4742</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>34</v>
       </c>
-      <c r="D27" s="7">
-        <v>22376</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="7">
-        <v>31</v>
-      </c>
-      <c r="I27" s="7">
-        <v>16056</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M27" s="7">
-        <v>65</v>
-      </c>
       <c r="N27" s="7">
-        <v>38432</v>
+        <v>19371</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -2282,55 +2354,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>2</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1573</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="7">
-        <v>10438</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="H28" s="7">
+        <v>9</v>
+      </c>
+      <c r="I28" s="7">
+        <v>4765</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H28" s="7">
-        <v>41</v>
-      </c>
-      <c r="I28" s="7">
-        <v>27316</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>11</v>
+      </c>
+      <c r="N28" s="7">
+        <v>6338</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="P28" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="M28" s="7">
-        <v>53</v>
-      </c>
-      <c r="N28" s="7">
-        <v>37754</v>
-      </c>
-      <c r="O28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,49 +2411,49 @@
         <v>15</v>
       </c>
       <c r="C29" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>8277</v>
+        <v>605</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H29" s="7">
+        <v>3</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1133</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="H29" s="7">
-        <v>11</v>
-      </c>
-      <c r="I29" s="7">
-        <v>5705</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>4</v>
+      </c>
+      <c r="N29" s="7">
+        <v>1738</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="M29" s="7">
-        <v>20</v>
-      </c>
-      <c r="N29" s="7">
-        <v>13983</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,49 +2462,49 @@
         <v>16</v>
       </c>
       <c r="C30" s="7">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="D30" s="7">
-        <v>46508</v>
+        <v>3986</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H30" s="7">
+        <v>9</v>
+      </c>
+      <c r="I30" s="7">
+        <v>4075</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H30" s="7">
-        <v>33</v>
-      </c>
-      <c r="I30" s="7">
-        <v>20695</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>16</v>
+      </c>
+      <c r="N30" s="7">
+        <v>8062</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="M30" s="7">
-        <v>89</v>
-      </c>
-      <c r="N30" s="7">
-        <v>67204</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,63 +2513,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>10</v>
+      </c>
+      <c r="D31" s="7">
+        <v>6164</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="7">
+        <v>21</v>
+      </c>
+      <c r="I31" s="7">
+        <v>9974</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" s="7">
+        <v>31</v>
+      </c>
+      <c r="N31" s="7">
+        <v>16138</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>12</v>
+      </c>
+      <c r="D32" s="7">
+        <v>10184</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H32" s="7">
+        <v>41</v>
+      </c>
+      <c r="I32" s="7">
+        <v>25354</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="M32" s="7">
+        <v>53</v>
+      </c>
+      <c r="N32" s="7">
+        <v>35538</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="7">
+        <v>9</v>
+      </c>
+      <c r="D33" s="7">
+        <v>8130</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H33" s="7">
+        <v>11</v>
+      </c>
+      <c r="I33" s="7">
+        <v>5358</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M33" s="7">
+        <v>20</v>
+      </c>
+      <c r="N33" s="7">
+        <v>13488</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="7">
+        <v>56</v>
+      </c>
+      <c r="D34" s="7">
+        <v>43963</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H34" s="7">
+        <v>33</v>
+      </c>
+      <c r="I34" s="7">
+        <v>19132</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="M34" s="7">
+        <v>89</v>
+      </c>
+      <c r="N34" s="7">
+        <v>63094</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>77</v>
       </c>
-      <c r="D31" s="7">
-        <v>65223</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>62277</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="7">
         <v>85</v>
       </c>
-      <c r="I31" s="7">
-        <v>53717</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>49843</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35" s="7">
         <v>162</v>
       </c>
-      <c r="N31" s="7">
-        <v>118940</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>164</v>
+      <c r="N35" s="7">
+        <v>112120</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
